--- a/tests/结果.xlsx
+++ b/tests/结果.xlsx
@@ -79,10 +79,10 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -454,103 +454,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9" ht="12.8" customHeight="1" s="2">
+      <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>CHZY→天津丰通（一工厂）</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>formula_value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="B2" s="4">
-        <f>SUM(B3,B4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>google</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="2">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>chemistry</t>
-        </is>
-      </c>
-      <c r="B5" s="4">
-        <f>SUM(B6,B7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="2">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>300</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="2">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>unilever</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>400</v>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
